--- a/testreport/3 Big mysteries/uni_cat_sigtest/x3_Big_mysteries_How_much_do_you_like_living_in.xlsx
+++ b/testreport/3 Big mysteries/uni_cat_sigtest/x3_Big_mysteries_How_much_do_you_like_living_in.xlsx
@@ -423,7 +423,7 @@
         <v>21.4</v>
       </c>
       <c r="E3">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="4">
